--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FB7E6E-D498-F043-AC97-A97EDDB00F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,15 +25,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>What is the pH value of pure water at 25°C?</t>
   </si>
   <si>
@@ -50,22 +50,39 @@
   </si>
   <si>
     <t>inorganic</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -74,36 +91,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -293,76 +318,81 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC9BE7-D12B-F543-8415-59870C2C2A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE73399-73C0-374D-81D1-C74C2AD94F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="241">
   <si>
     <t>id</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>points</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -794,13 +797,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1107,15 +1124,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,8 +1145,11 @@
       <c r="D1" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1142,8 +1162,11 @@
       <c r="D2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1156,8 +1179,11 @@
       <c r="D3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1170,8 +1196,11 @@
       <c r="D4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1184,8 +1213,11 @@
       <c r="D5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1198,8 +1230,11 @@
       <c r="D6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1212,8 +1247,11 @@
       <c r="D7" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1226,8 +1264,11 @@
       <c r="D8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1240,8 +1281,11 @@
       <c r="D9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1254,8 +1298,11 @@
       <c r="D10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1268,8 +1315,11 @@
       <c r="D11" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1282,8 +1332,11 @@
       <c r="D12" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1296,8 +1349,11 @@
       <c r="D13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1310,8 +1366,11 @@
       <c r="D14" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1324,8 +1383,11 @@
       <c r="D15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1338,8 +1400,11 @@
       <c r="D16" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1352,8 +1417,11 @@
       <c r="D17" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1366,8 +1434,11 @@
       <c r="D18" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1380,8 +1451,11 @@
       <c r="D19" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1394,8 +1468,11 @@
       <c r="D20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1408,8 +1485,11 @@
       <c r="D21" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1422,8 +1502,11 @@
       <c r="D22" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1436,8 +1519,11 @@
       <c r="D23" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1450,8 +1536,11 @@
       <c r="D24" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1464,8 +1553,11 @@
       <c r="D25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1478,8 +1570,11 @@
       <c r="D26" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1492,8 +1587,11 @@
       <c r="D27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1506,8 +1604,11 @@
       <c r="D28" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1520,8 +1621,11 @@
       <c r="D29" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1534,8 +1638,11 @@
       <c r="D30" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1548,8 +1655,11 @@
       <c r="D31" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1562,8 +1672,11 @@
       <c r="D32" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1576,8 +1689,11 @@
       <c r="D33" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1590,8 +1706,11 @@
       <c r="D34" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1604,8 +1723,11 @@
       <c r="D35" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1618,8 +1740,11 @@
       <c r="D36" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1632,8 +1757,11 @@
       <c r="D37" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1646,8 +1774,11 @@
       <c r="D38" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1660,8 +1791,11 @@
       <c r="D39" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1674,8 +1808,11 @@
       <c r="D40" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1688,8 +1825,11 @@
       <c r="D41" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1702,8 +1842,11 @@
       <c r="D42" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1716,8 +1859,11 @@
       <c r="D43" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1730,8 +1876,11 @@
       <c r="D44" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1744,8 +1893,11 @@
       <c r="D45" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1758,8 +1910,11 @@
       <c r="D46" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1772,8 +1927,11 @@
       <c r="D47" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1786,8 +1944,11 @@
       <c r="D48" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1800,8 +1961,11 @@
       <c r="D49" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1814,8 +1978,11 @@
       <c r="D50" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1828,8 +1995,11 @@
       <c r="D51" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1842,8 +2012,11 @@
       <c r="D52" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1856,8 +2029,11 @@
       <c r="D53" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1870,8 +2046,11 @@
       <c r="D54" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1884,8 +2063,11 @@
       <c r="D55" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1898,8 +2080,11 @@
       <c r="D56" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1912,8 +2097,11 @@
       <c r="D57" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1926,8 +2114,11 @@
       <c r="D58" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1940,8 +2131,11 @@
       <c r="D59" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1954,8 +2148,11 @@
       <c r="D60" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1968,8 +2165,11 @@
       <c r="D61" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1982,8 +2182,11 @@
       <c r="D62" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1996,8 +2199,11 @@
       <c r="D63" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2010,8 +2216,11 @@
       <c r="D64" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2024,8 +2233,11 @@
       <c r="D65" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2038,8 +2250,11 @@
       <c r="D66" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2052,8 +2267,11 @@
       <c r="D67" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2066,8 +2284,11 @@
       <c r="D68" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2080,8 +2301,11 @@
       <c r="D69" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2094,8 +2318,11 @@
       <c r="D70" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2108,8 +2335,11 @@
       <c r="D71" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2122,8 +2352,11 @@
       <c r="D72" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2136,8 +2369,11 @@
       <c r="D73" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2150,8 +2386,11 @@
       <c r="D74" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2164,8 +2403,11 @@
       <c r="D75" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2178,8 +2420,11 @@
       <c r="D76" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2192,8 +2437,11 @@
       <c r="D77" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2206,8 +2454,11 @@
       <c r="D78" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2220,8 +2471,11 @@
       <c r="D79" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2234,8 +2488,11 @@
       <c r="D80" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2248,8 +2505,11 @@
       <c r="D81" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2262,8 +2522,11 @@
       <c r="D82" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2276,8 +2539,11 @@
       <c r="D83" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2290,8 +2556,11 @@
       <c r="D84" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2304,8 +2573,11 @@
       <c r="D85" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2318,8 +2590,11 @@
       <c r="D86" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2332,8 +2607,11 @@
       <c r="D87" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2346,8 +2624,11 @@
       <c r="D88" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2360,8 +2641,11 @@
       <c r="D89" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2374,8 +2658,11 @@
       <c r="D90" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2388,8 +2675,11 @@
       <c r="D91" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2402,8 +2692,11 @@
       <c r="D92" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2416,8 +2709,11 @@
       <c r="D93" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2430,8 +2726,11 @@
       <c r="D94" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2444,8 +2743,11 @@
       <c r="D95" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2458,8 +2760,11 @@
       <c r="D96" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2472,8 +2777,11 @@
       <c r="D97" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2486,8 +2794,11 @@
       <c r="D98" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2500,8 +2811,11 @@
       <c r="D99" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2514,8 +2828,11 @@
       <c r="D100" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2528,8 +2845,11 @@
       <c r="D101" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2542,8 +2862,11 @@
       <c r="D102" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2556,8 +2879,11 @@
       <c r="D103" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2569,6 +2895,9 @@
       </c>
       <c r="D104" t="s">
         <v>236</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24A07E4D-9ED6-AD4C-ACBE-AB1FDBE19FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60F318-6AA2-BC47-AC11-3FC8B1603E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1588,13 +1588,13 @@
     <t>answer</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
     <t>pages</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -1965,7 +1965,7 @@
   <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1981,13 +1981,13 @@
         <v>455</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
